--- a/tabular/refseq/lenti-reference-data.xlsx
+++ b/tabular/refseq/lenti-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/refseq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38989C69-709E-5D4B-BFE2-CDE6130ACE4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37B6969-B92C-0047-B8BF-C3496CFB943A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8120" yWindow="9980" windowWidth="24900" windowHeight="11960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="587">
   <si>
     <t>Accession</t>
   </si>
@@ -1743,6 +1743,54 @@
   </si>
   <si>
     <t xml:space="preserve">FIV </t>
+  </si>
+  <si>
+    <t>host_sci_name</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Human immunodeficiency virus 1</t>
+  </si>
+  <si>
+    <t>Small ruminant lentivirus genotype A</t>
+  </si>
+  <si>
+    <t>NC_001452</t>
+  </si>
+  <si>
+    <t>subtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV-1 </t>
+  </si>
+  <si>
+    <t>Bovine</t>
+  </si>
+  <si>
+    <t>Equine</t>
+  </si>
+  <si>
+    <t>Feline</t>
+  </si>
+  <si>
+    <t>Caprine-Ovine</t>
+  </si>
+  <si>
+    <t>species</t>
   </si>
 </sst>
 </file>
@@ -2319,96 +2367,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="A1:M6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="10" max="10" width="23.1640625" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>454</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>456</v>
-      </c>
       <c r="D1" s="30" t="s">
-        <v>457</v>
+        <v>586</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>459</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>462</v>
+        <v>571</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>439</v>
+        <v>572</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>2</v>
+        <v>573</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>577</v>
       </c>
       <c r="C2" t="s">
         <v>496</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>581</v>
       </c>
       <c r="E2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" t="s">
         <v>374</v>
       </c>
-      <c r="F2" t="s">
-        <v>466</v>
-      </c>
       <c r="G2" t="s">
-        <v>467</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="I2" t="s">
-        <v>497</v>
+        <v>316</v>
       </c>
       <c r="J2" t="s">
-        <v>316</v>
-      </c>
-      <c r="K2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>324</v>
       </c>
@@ -2419,25 +2464,25 @@
         <v>464</v>
       </c>
       <c r="D3" t="s">
-        <v>465</v>
+        <v>325</v>
+      </c>
+      <c r="E3" t="s">
+        <v>582</v>
       </c>
       <c r="F3" t="s">
-        <v>466</v>
+        <v>575</v>
       </c>
       <c r="G3" t="s">
-        <v>467</v>
+        <v>575</v>
       </c>
       <c r="H3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I3" t="s">
-        <v>469</v>
-      </c>
-      <c r="J3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>336</v>
       </c>
@@ -2448,25 +2493,25 @@
         <v>478</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>337</v>
+      </c>
+      <c r="E4" t="s">
+        <v>583</v>
       </c>
       <c r="F4" t="s">
-        <v>466</v>
+        <v>576</v>
       </c>
       <c r="G4" t="s">
-        <v>467</v>
+        <v>576</v>
       </c>
       <c r="H4" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="I4" t="s">
-        <v>479</v>
-      </c>
-      <c r="J4" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>328</v>
       </c>
@@ -2477,50 +2522,50 @@
         <v>570</v>
       </c>
       <c r="D5" t="s">
-        <v>465</v>
+        <v>383</v>
+      </c>
+      <c r="E5" t="s">
+        <v>584</v>
       </c>
       <c r="F5" t="s">
-        <v>466</v>
+        <v>575</v>
       </c>
       <c r="G5" t="s">
-        <v>467</v>
+        <v>575</v>
       </c>
       <c r="H5" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="I5" t="s">
-        <v>493</v>
-      </c>
-      <c r="J5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>579</v>
       </c>
       <c r="B6" t="s">
-        <v>526</v>
+        <v>578</v>
       </c>
       <c r="C6" t="s">
         <v>527</v>
       </c>
       <c r="D6" t="s">
-        <v>465</v>
+        <v>343</v>
+      </c>
+      <c r="E6" t="s">
+        <v>585</v>
       </c>
       <c r="F6" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="G6" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="H6" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="I6" t="s">
-        <v>528</v>
-      </c>
-      <c r="J6" t="s">
         <v>450</v>
       </c>
     </row>

--- a/tabular/refseq/lenti-reference-data.xlsx
+++ b/tabular/refseq/lenti-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/refseq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37B6969-B92C-0047-B8BF-C3496CFB943A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACBA583-2905-B04E-B41B-7F7A5A73D005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8120" yWindow="9980" windowWidth="24900" windowHeight="11960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2370,7 +2370,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H5" sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
